--- a/v2/Proyecto Excel proveduria/Impresiones/Temp Impresion.xlsx
+++ b/v2/Proyecto Excel proveduria/Impresiones/Temp Impresion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\v2\Proyecto Excel proveduria\Impresiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\STOCK\v2\Proyecto Excel proveduria\Impresiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D37C8A-B069-4D8E-AF6E-26A8E9F0B593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6AF9C0-71C2-49C2-902F-24C2E4B60698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,25 +102,25 @@
     <t>Cuotas 5:                  $</t>
   </si>
   <si>
-    <t>17/08/2021</t>
-  </si>
-  <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
-    <t>MORAN, JUAN CEFERINO</t>
-  </si>
-  <si>
-    <t>380-19</t>
-  </si>
-  <si>
-    <t>BARTOLOME  MITRE</t>
-  </si>
-  <si>
-    <t>MANOS LIBRE ONLY ROMPE OIDO</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>27/04/2022</t>
+  </si>
+  <si>
+    <t>Tarjeta/ Debito</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>MANOS LIBRE ONLY EN CAJA</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$E$60" spid="_x0000_s1121"/>
+                  <a14:cameraTool cellRange="$A$1:$E$60" spid="_x0000_s1126"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="10">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -934,8 +934,8 @@
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13">
-        <v>22075779</v>
+      <c r="B3" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
@@ -954,16 +954,14 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>23</v>
+      <c r="B4" s="38">
+        <v>0</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="45">
-        <v>304</v>
-      </c>
+      <c r="E4" s="45"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1014,7 +1012,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="23">
-        <v>1240</v>
+        <v>459</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1041,7 +1039,7 @@
     </row>
     <row r="9" spans="1:11" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>26</v>
@@ -1050,10 +1048,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="28">
-        <v>193</v>
+        <v>459</v>
       </c>
       <c r="E9" s="28">
-        <v>1544</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
